--- a/词法分析结果.xlsx
+++ b/词法分析结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -1572,23 +1572,23 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>赋值运算符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1598,17 +1598,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>减法运算符</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1618,17 +1618,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>减法运算符</t>
+          <t>数字字面量</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1638,57 +1638,57 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>;</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>数字字面量</t>
+          <t>分号</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>分号</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>=</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>赋值运算符</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1698,17 +1698,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>赋值运算符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1718,17 +1718,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>+</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>加法运算符</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1738,17 +1738,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>加法运算符</t>
+          <t>数字字面量</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1758,137 +1758,137 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>;</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>数字字面量</t>
+          <t>分号</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>}</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>分号</t>
+          <t>右大括号</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>}</t>
+          <t>if</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>右大括号</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>(</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>左括号</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>左括号</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>a</t>
+          <t xml:space="preserve"> ==</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>等于比较符</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ==</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>等于比较符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1898,37 +1898,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>右括号</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>右括号</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1938,581 +1938,281 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>=</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>赋值运算符</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>(</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>赋值运算符</t>
+          <t>左括号</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>左括号</t>
+          <t>数字字面量</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>+</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>数字字面量</t>
+          <t>加法运算符</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>加法运算符</t>
+          <t>数字字面量</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>数字字面量</t>
+          <t>右括号</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>*</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>右括号</t>
+          <t>乘法运算符</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>(</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>乘法运算符</t>
+          <t>左括号</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>左括号</t>
+          <t>数字字面量</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>数字字面量</t>
+          <t>除法运算符</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>除法运算符</t>
+          <t>数字字面量</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>数字字面量</t>
+          <t>右括号</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>;</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>右括号</t>
+          <t>分号</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>}</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>分号</t>
+          <t>右大括号</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>标识符</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>赋值运算符</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>左括号</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>数字字面量</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>加法运算符</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>数字字面量</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>右括号</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>乘法运算符</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>左括号</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>数字字面量</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>除法运算符</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>数字字面量</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>右括号</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>分号</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>}</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>右大括号</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>255</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
